--- a/gropin/schema/metadataschema328.xlsx
+++ b/gropin/schema/metadataschema328.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Escherichia coli O157:H7 in/on Beef meat (gropin ID: 328 )</t>
+          <t>Gropin secondary growth model for Escherichia coli O157:H7 in/on Beef meat (gropin ID: 328 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(5.005,45.3546453546454,length.out=21)</t>
+          <t>seq(5.005,45.3546453546454,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(3.88388,8.9010989010989,length.out=21)</t>
+          <t>seq(3.88388,8.9010989010989,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0.944944,0.999000999000999,length.out=21)</t>
+          <t>seq(0.944944,0.999000999000999,length.out=10)</t>
         </is>
       </c>
     </row>
